--- a/plymouth/Plymouth_Pressure_Digitised_1876.xlsx
+++ b/plymouth/Plymouth_Pressure_Digitised_1876.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\research\dpv\uk\dwr_plymouth_1873-9AND1891-1921\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/plymouth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AC137B-F38F-4740-AC5A-427442DFD954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B7486E-2664-9A44-BA81-A4403AE42AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05A01184-34FC-49EB-9EDB-CE168D0F5C49}"/>
+    <workbookView xWindow="5040" yWindow="500" windowWidth="20260" windowHeight="15840" activeTab="2" xr2:uid="{05A01184-34FC-49EB-9EDB-CE168D0F5C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan1876" sheetId="23" r:id="rId1"/>
     <sheet name="Feb1876" sheetId="22" r:id="rId2"/>
     <sheet name="March1876" sheetId="25" r:id="rId3"/>
     <sheet name="April1876" sheetId="26" r:id="rId4"/>
-    <sheet name="June1876" sheetId="28" r:id="rId5"/>
-    <sheet name="May1876" sheetId="27" r:id="rId6"/>
+    <sheet name="May1876" sheetId="27" r:id="rId5"/>
+    <sheet name="June1876" sheetId="28" r:id="rId6"/>
     <sheet name="July1876" sheetId="29" r:id="rId7"/>
     <sheet name="Aug1876" sheetId="30" r:id="rId8"/>
     <sheet name="Sep1876" sheetId="31" r:id="rId9"/>
@@ -34,7 +34,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -210,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -225,22 +230,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -305,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -411,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,30 +604,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE30CC8B-D9FC-456A-B2B7-42F2872D5A49}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" zoomScale="98" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -637,8 +638,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -648,9 +649,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -664,7 +665,7 @@
         <v>30.111999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -678,7 +679,7 @@
         <v>30.033000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -692,7 +693,7 @@
         <v>30.224</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -702,11 +703,11 @@
       <c r="C7" s="4">
         <v>30.242000000000001</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>30.254000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -720,7 +721,7 @@
         <v>30.334</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -734,7 +735,7 @@
         <v>30.372</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -748,7 +749,7 @@
         <v>30.123000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -762,7 +763,7 @@
         <v>29.981999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -776,7 +777,7 @@
         <v>30.199000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -790,7 +791,7 @@
         <v>30.393999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -804,7 +805,7 @@
         <v>30.26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -818,7 +819,7 @@
         <v>30.105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -832,7 +833,7 @@
         <v>30.324999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -846,7 +847,7 @@
         <v>30.501999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -860,7 +861,7 @@
         <v>30.634</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -874,7 +875,7 @@
         <v>30.550999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -888,7 +889,7 @@
         <v>30.303999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -902,7 +903,7 @@
         <v>30.283000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -916,7 +917,7 @@
         <v>30.082000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -930,7 +931,7 @@
         <v>29.756</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -944,7 +945,7 @@
         <v>29.777999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -958,7 +959,7 @@
         <v>30.404</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -972,7 +973,7 @@
         <v>30.434999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -986,7 +987,7 @@
         <v>30.556999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>30.315000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>30.341999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>30.228000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>30.260999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>30.254999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>30.303999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
@@ -1107,37 +1108,37 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1147,9 +1148,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>29.978999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1177,7 +1178,7 @@
         <v>29.902000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>29.795000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>29.771000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>29.809000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>29.844000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>29.937999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>29.742000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>29.629000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>29.491</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>29.248000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1317,7 +1318,7 @@
         <v>29.550999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>29.664000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>29.844000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>29.846</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>29.506</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>29.588000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1415,7 +1416,7 @@
         <v>29.776</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>30.004999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>30.091000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>30.071000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>30.079000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>30.178000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>30.257999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>30.234999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>30.175999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>30.251999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>30.273</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>30.268999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -1604,37 +1605,37 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1644,9 +1645,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>30.393999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>30.382000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>30.364999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>30.312000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>30.263999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>30.207999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>30.036999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>30.041</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>30.109000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>29.416</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>29.010999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>29.484000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>29.361000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>29.46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>29.292999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>29.966000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>29.852</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>29.831</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>29.952999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>30.129000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>29.914000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>29.792000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>29.544</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>29.521999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>29.338000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>29.542999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>29.626999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>29.416</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2074,7 +2075,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -2095,37 +2096,37 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2135,9 +2136,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>29.129000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>29.11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>28.835000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>28.824999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>28.681000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>29.234000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>29.148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>29.951000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>30.236999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>30.111999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>29.698</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>29.684000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>29.765999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>29.721</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>29.591999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>29.501999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>29.178999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>28.748000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>28.905999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>29.260999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>29.443999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>29.547999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>29.923999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>29.850999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>29.632999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>29.707999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>29.398</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>29.242000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -2592,25 +2593,25 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2621,8 +2622,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -2632,9 +2633,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>30.033999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>30.341999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>30.273</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>30.123000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>29.992999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>30.013000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>29.981000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>29.977</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>29.873000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>29.870999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>29.818999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>29.827999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>29.483000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>29.623000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>29.585999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>29.818000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>29.783000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>29.245999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>29.437999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>29.776</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>29.844999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>30.067</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>30.123000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>29.553000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>29.678999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>29.934000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3048,7 +3049,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3056,7 +3057,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -3071,32 +3072,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB472BF-B6A1-416C-9C21-DBB4AF01E8B4}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="13"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="6" max="10" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -3107,8 +3108,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -3118,9 +3119,10 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="10"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3133,9 +3135,10 @@
       <c r="D4" s="4">
         <v>29.715</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3148,9 +3151,10 @@
       <c r="D5" s="4">
         <v>29.812999999999999</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3163,9 +3167,10 @@
       <c r="D6" s="4">
         <v>29.748999999999999</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3178,9 +3183,10 @@
       <c r="D7" s="4">
         <v>29.914999999999999</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3193,9 +3199,10 @@
       <c r="D8" s="4">
         <v>29.86</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3208,9 +3215,10 @@
       <c r="D9" s="3">
         <v>29.920999999999999</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3223,9 +3231,10 @@
       <c r="D10" s="4">
         <v>30.036999999999999</v>
       </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3238,9 +3247,10 @@
       <c r="D11" s="4">
         <v>29.251999999999999</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3253,9 +3263,10 @@
       <c r="D12" s="4">
         <v>28.704000000000001</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3268,9 +3279,10 @@
       <c r="D13" s="4">
         <v>28.963000000000001</v>
       </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3283,9 +3295,10 @@
       <c r="D14" s="4">
         <v>29.292999999999999</v>
       </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3298,9 +3311,10 @@
       <c r="D15" s="4">
         <v>29.247</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3313,9 +3327,10 @@
       <c r="D16" s="4">
         <v>29.745000000000001</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3328,9 +3343,10 @@
       <c r="D17" s="4">
         <v>29.760999999999999</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3343,9 +3359,10 @@
       <c r="D18" s="4">
         <v>29.564</v>
       </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3358,14 +3375,15 @@
       <c r="D19" s="4">
         <v>29.780999999999999</v>
       </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="9">
-        <v>29.818000000000001</v>
+      <c r="B20" s="8">
+        <v>29.8</v>
       </c>
       <c r="C20" s="4">
         <v>29.893000000000001</v>
@@ -3373,9 +3391,10 @@
       <c r="D20" s="4">
         <v>29.940999999999999</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3388,9 +3407,10 @@
       <c r="D21" s="4">
         <v>30.102</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3403,9 +3423,10 @@
       <c r="D22" s="4">
         <v>30.146999999999998</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3418,9 +3439,10 @@
       <c r="D23" s="4">
         <v>30.138999999999999</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3433,9 +3455,10 @@
       <c r="D24" s="4">
         <v>29.692</v>
       </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3448,9 +3471,10 @@
       <c r="D25" s="4">
         <v>29.951000000000001</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3463,9 +3487,10 @@
       <c r="D26" s="4">
         <v>29.896000000000001</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -3478,9 +3503,10 @@
       <c r="D27" s="4">
         <v>29.544</v>
       </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -3493,9 +3519,10 @@
       <c r="D28" s="4">
         <v>29.594999999999999</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -3508,9 +3535,10 @@
       <c r="D29" s="4">
         <v>29.484999999999999</v>
       </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -3523,9 +3551,10 @@
       <c r="D30" s="4">
         <v>29.268999999999998</v>
       </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -3538,9 +3567,10 @@
       <c r="D31" s="4">
         <v>29.157</v>
       </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -3553,9 +3583,10 @@
       <c r="D32" s="4">
         <v>29.391999999999999</v>
       </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -3568,9 +3599,10 @@
       <c r="D33" s="4">
         <v>29.478000000000002</v>
       </c>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -3583,9 +3615,10 @@
       <c r="D34" s="4">
         <v>29.616</v>
       </c>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -3604,40 +3637,40 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -3647,9 +3680,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -3662,9 +3695,9 @@
       <c r="D4" s="4">
         <v>29.808</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3677,9 +3710,9 @@
       <c r="D5" s="4">
         <v>30.065999999999999</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -3692,9 +3725,9 @@
       <c r="D6" s="4">
         <v>30.291</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -3707,9 +3740,9 @@
       <c r="D7" s="4">
         <v>30.477</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3722,9 +3755,9 @@
       <c r="D8" s="4">
         <v>30.465</v>
       </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3737,9 +3770,9 @@
       <c r="D9" s="3">
         <v>30.349</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -3752,9 +3785,9 @@
       <c r="D10" s="4">
         <v>30.190999999999999</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3767,9 +3800,9 @@
       <c r="D11" s="4">
         <v>29.943000000000001</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -3782,9 +3815,9 @@
       <c r="D12" s="4">
         <v>29.875</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -3797,9 +3830,9 @@
       <c r="D13" s="4">
         <v>29.4</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -3812,9 +3845,9 @@
       <c r="D14" s="4">
         <v>29.916</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -3827,9 +3860,9 @@
       <c r="D15" s="4">
         <v>30.082999999999998</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -3842,9 +3875,9 @@
       <c r="D16" s="4">
         <v>29.803999999999998</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -3857,9 +3890,9 @@
       <c r="D17" s="4">
         <v>30.074000000000002</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -3872,9 +3905,9 @@
       <c r="D18" s="4">
         <v>30.213000000000001</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -3887,9 +3920,9 @@
       <c r="D19" s="4">
         <v>30.004000000000001</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -3902,9 +3935,9 @@
       <c r="D20" s="4">
         <v>29.343</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -3917,9 +3950,9 @@
       <c r="D21" s="4">
         <v>28.923999999999999</v>
       </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -3932,9 +3965,9 @@
       <c r="D22" s="4">
         <v>29.081</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3947,9 +3980,9 @@
       <c r="D23" s="4">
         <v>29.317</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -3962,9 +3995,9 @@
       <c r="D24" s="4">
         <v>29.638999999999999</v>
       </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -3977,9 +4010,9 @@
       <c r="D25" s="4">
         <v>29.949000000000002</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -3992,9 +4025,9 @@
       <c r="D26" s="4">
         <v>29.911999999999999</v>
       </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4007,9 +4040,9 @@
       <c r="D27" s="4">
         <v>29.972000000000001</v>
       </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4022,9 +4055,9 @@
       <c r="D28" s="4">
         <v>30.327000000000002</v>
       </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4037,9 +4070,9 @@
       <c r="D29" s="4">
         <v>30.18</v>
       </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4052,9 +4085,9 @@
       <c r="D30" s="4">
         <v>29.751999999999999</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4067,9 +4100,9 @@
       <c r="D31" s="4">
         <v>29.483000000000001</v>
       </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4082,9 +4115,9 @@
       <c r="D32" s="4">
         <v>29.436</v>
       </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4097,9 +4130,9 @@
       <c r="D33" s="4">
         <v>29.77</v>
       </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4107,7 +4140,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -4121,6 +4154,534 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAE2A20-91E5-422E-A916-855E1DE773DC}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30.047000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30.074999999999999</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>30.175999999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30.184999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>30.195</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>30.292000000000002</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30.225000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>30.361000000000001</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30.454999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>30.445</v>
+      </c>
+      <c r="D7" s="4">
+        <v>30.420999999999999</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>30.352</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30.306999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>30.257999999999999</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30.228000000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>30.21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30.187000000000001</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30.256</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30.285</v>
+      </c>
+      <c r="D10" s="4">
+        <v>30.283000000000001</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>30.338999999999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>30.318999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>30.295999999999999</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30.289000000000001</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30.231000000000002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>30.218</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>30.219000000000001</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30.164999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>30.146000000000001</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>30.109000000000002</v>
+      </c>
+      <c r="C14" s="4">
+        <v>30.073</v>
+      </c>
+      <c r="D14" s="4">
+        <v>30.077000000000002</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>30.102</v>
+      </c>
+      <c r="C15" s="4">
+        <v>30.12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>30.138000000000002</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30.265000000000001</v>
+      </c>
+      <c r="C16" s="4">
+        <v>30.26</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30.231999999999999</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>30.186</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30.123000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>30.056000000000001</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30.050999999999998</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30.056999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>30.056999999999999</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>30.126999999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30.096</v>
+      </c>
+      <c r="D19" s="4">
+        <v>30.064</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>30.067</v>
+      </c>
+      <c r="D20" s="4">
+        <v>30.082000000000001</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>30.175999999999998</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30.175000000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>30.175000000000001</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>30.297999999999998</v>
+      </c>
+      <c r="C22" s="4">
+        <v>30.282</v>
+      </c>
+      <c r="D22" s="4">
+        <v>30.265000000000001</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>30.28</v>
+      </c>
+      <c r="D23" s="4">
+        <v>30.245000000000001</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>30.161999999999999</v>
+      </c>
+      <c r="C24" s="4">
+        <v>30.122</v>
+      </c>
+      <c r="D24" s="4">
+        <v>30.055</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>29.907</v>
+      </c>
+      <c r="C25" s="4">
+        <v>29.849</v>
+      </c>
+      <c r="D25" s="4">
+        <v>29.838000000000001</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>29.88</v>
+      </c>
+      <c r="C26" s="4">
+        <v>29.864000000000001</v>
+      </c>
+      <c r="D26" s="4">
+        <v>29.850999999999999</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>29.702999999999999</v>
+      </c>
+      <c r="C27" s="4">
+        <v>29.699000000000002</v>
+      </c>
+      <c r="D27" s="4">
+        <v>29.710999999999999</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>29.821999999999999</v>
+      </c>
+      <c r="C28" s="4">
+        <v>29.856000000000002</v>
+      </c>
+      <c r="D28" s="4">
+        <v>29.882000000000001</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>29.937000000000001</v>
+      </c>
+      <c r="C29" s="4">
+        <v>29.922000000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>29.891999999999999</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>29.992999999999999</v>
+      </c>
+      <c r="C30" s="4">
+        <v>30.058</v>
+      </c>
+      <c r="D30" s="4">
+        <v>30.091000000000001</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>30.28</v>
+      </c>
+      <c r="C31" s="4">
+        <v>30.276</v>
+      </c>
+      <c r="D31" s="4">
+        <v>30.280999999999999</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>30.276</v>
+      </c>
+      <c r="C32" s="4">
+        <v>30.24</v>
+      </c>
+      <c r="D32" s="4">
+        <v>30.225000000000001</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>30.192</v>
+      </c>
+      <c r="C33" s="4">
+        <v>30.178999999999998</v>
+      </c>
+      <c r="D33" s="4">
+        <v>30.154</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4">
+        <v>30.135999999999999</v>
+      </c>
+      <c r="C34" s="4">
+        <v>30.170999999999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>30.184999999999999</v>
+      </c>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BB642-2D91-4A09-95DD-3E7CD4924140}">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -4128,37 +4689,37 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -4168,9 +4729,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4183,9 +4744,9 @@
       <c r="D4" s="4">
         <v>30.2</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4198,9 +4759,9 @@
       <c r="D5" s="4">
         <v>29.978000000000002</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4213,9 +4774,9 @@
       <c r="D6" s="4">
         <v>29.827999999999999</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4228,9 +4789,9 @@
       <c r="D7" s="4">
         <v>30.016999999999999</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4243,9 +4804,9 @@
       <c r="D8" s="4">
         <v>30</v>
       </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -4258,9 +4819,9 @@
       <c r="D9" s="3">
         <v>30.044</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -4273,9 +4834,9 @@
       <c r="D10" s="4">
         <v>30.029</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4288,9 +4849,9 @@
       <c r="D11" s="4">
         <v>29.834</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -4303,9 +4864,9 @@
       <c r="D12" s="4">
         <v>29.891999999999999</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -4318,9 +4879,9 @@
       <c r="D13" s="4">
         <v>30.236999999999998</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -4333,9 +4894,9 @@
       <c r="D14" s="4">
         <v>30.167999999999999</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -4348,9 +4909,9 @@
       <c r="D15" s="4">
         <v>30.093</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -4363,9 +4924,9 @@
       <c r="D16" s="4">
         <v>30.062000000000001</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -4378,9 +4939,9 @@
       <c r="D17" s="4">
         <v>30.056000000000001</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -4393,9 +4954,9 @@
       <c r="D18" s="4">
         <v>29.875</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -4408,9 +4969,9 @@
       <c r="D19" s="4">
         <v>29.957999999999998</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -4423,9 +4984,9 @@
       <c r="D20" s="4">
         <v>29.847999999999999</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -4438,22 +4999,22 @@
       <c r="D21" s="4">
         <v>30.126000000000001</v>
       </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="4">
         <v>30.103000000000002</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4">
         <v>30.027000000000001</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -4466,9 +5027,9 @@
       <c r="D23" s="4">
         <v>29.884</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -4481,9 +5042,9 @@
       <c r="D24" s="4">
         <v>29.933</v>
       </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -4496,9 +5057,9 @@
       <c r="D25" s="4">
         <v>30.024999999999999</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -4511,9 +5072,9 @@
       <c r="D26" s="4">
         <v>29.992999999999999</v>
       </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -4526,9 +5087,9 @@
       <c r="D27" s="4">
         <v>29.853000000000002</v>
       </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -4541,9 +5102,9 @@
       <c r="D28" s="4">
         <v>29.914000000000001</v>
       </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -4556,9 +5117,9 @@
       <c r="D29" s="4">
         <v>29.984999999999999</v>
       </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4571,9 +5132,9 @@
       <c r="D30" s="4">
         <v>30.177</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4586,9 +5147,9 @@
       <c r="D31" s="4">
         <v>30.088999999999999</v>
       </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -4601,9 +5162,9 @@
       <c r="D32" s="4">
         <v>30.038</v>
       </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -4616,9 +5177,9 @@
       <c r="D33" s="4">
         <v>30.024000000000001</v>
       </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -4626,7 +5187,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -4640,534 +5201,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAE2A20-91E5-422E-A916-855E1DE773DC}">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
-        <v>30.047000000000001</v>
-      </c>
-      <c r="D4" s="4">
-        <v>30.074999999999999</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30.175999999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30.184999999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>30.195</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>30.292000000000002</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30.225000000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>30.361000000000001</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>30.454999999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>30.445</v>
-      </c>
-      <c r="D7" s="4">
-        <v>30.420999999999999</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>30.352</v>
-      </c>
-      <c r="C8" s="4">
-        <v>30.306999999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>30.257999999999999</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4">
-        <v>30.228000000000002</v>
-      </c>
-      <c r="C9" s="4">
-        <v>30.21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>30.187000000000001</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>30.256</v>
-      </c>
-      <c r="C10" s="4">
-        <v>30.285</v>
-      </c>
-      <c r="D10" s="4">
-        <v>30.283000000000001</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>30.338999999999999</v>
-      </c>
-      <c r="C11" s="4">
-        <v>30.318999999999999</v>
-      </c>
-      <c r="D11" s="4">
-        <v>30.295999999999999</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>30.289000000000001</v>
-      </c>
-      <c r="C12" s="4">
-        <v>30.231000000000002</v>
-      </c>
-      <c r="D12" s="4">
-        <v>30.218</v>
-      </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>30.219000000000001</v>
-      </c>
-      <c r="C13" s="4">
-        <v>30.164999999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>30.146000000000001</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <v>30.109000000000002</v>
-      </c>
-      <c r="C14" s="4">
-        <v>30.073</v>
-      </c>
-      <c r="D14" s="4">
-        <v>30.077000000000002</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>30.102</v>
-      </c>
-      <c r="C15" s="4">
-        <v>30.12</v>
-      </c>
-      <c r="D15" s="4">
-        <v>30.138000000000002</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30.265000000000001</v>
-      </c>
-      <c r="C16" s="4">
-        <v>30.26</v>
-      </c>
-      <c r="D16" s="4">
-        <v>30.231999999999999</v>
-      </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>30.186</v>
-      </c>
-      <c r="C17" s="4">
-        <v>30.123000000000001</v>
-      </c>
-      <c r="D17" s="4">
-        <v>30.056000000000001</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
-        <v>30.050999999999998</v>
-      </c>
-      <c r="C18" s="4">
-        <v>30.056999999999999</v>
-      </c>
-      <c r="D18" s="4">
-        <v>30.056999999999999</v>
-      </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>30.126999999999999</v>
-      </c>
-      <c r="C19" s="4">
-        <v>30.096</v>
-      </c>
-      <c r="D19" s="4">
-        <v>30.064</v>
-      </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4">
-        <v>30.048999999999999</v>
-      </c>
-      <c r="C20" s="4">
-        <v>30.067</v>
-      </c>
-      <c r="D20" s="4">
-        <v>30.082000000000001</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4">
-        <v>30.175999999999998</v>
-      </c>
-      <c r="C21" s="4">
-        <v>30.175000000000001</v>
-      </c>
-      <c r="D21" s="4">
-        <v>30.175000000000001</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="4">
-        <v>30.297999999999998</v>
-      </c>
-      <c r="C22" s="4">
-        <v>30.282</v>
-      </c>
-      <c r="D22" s="4">
-        <v>30.265000000000001</v>
-      </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="C23" s="4">
-        <v>30.28</v>
-      </c>
-      <c r="D23" s="4">
-        <v>30.245000000000001</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>30.161999999999999</v>
-      </c>
-      <c r="C24" s="4">
-        <v>30.122</v>
-      </c>
-      <c r="D24" s="4">
-        <v>30.055</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>22</v>
-      </c>
-      <c r="B25" s="4">
-        <v>29.907</v>
-      </c>
-      <c r="C25" s="4">
-        <v>29.849</v>
-      </c>
-      <c r="D25" s="4">
-        <v>29.838000000000001</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4">
-        <v>29.88</v>
-      </c>
-      <c r="C26" s="4">
-        <v>29.864000000000001</v>
-      </c>
-      <c r="D26" s="4">
-        <v>29.850999999999999</v>
-      </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4">
-        <v>29.702999999999999</v>
-      </c>
-      <c r="C27" s="4">
-        <v>29.699000000000002</v>
-      </c>
-      <c r="D27" s="4">
-        <v>29.710999999999999</v>
-      </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4">
-        <v>29.821999999999999</v>
-      </c>
-      <c r="C28" s="4">
-        <v>29.856000000000002</v>
-      </c>
-      <c r="D28" s="4">
-        <v>29.882000000000001</v>
-      </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4">
-        <v>29.937000000000001</v>
-      </c>
-      <c r="C29" s="4">
-        <v>29.922000000000001</v>
-      </c>
-      <c r="D29" s="4">
-        <v>29.891999999999999</v>
-      </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4">
-        <v>29.992999999999999</v>
-      </c>
-      <c r="C30" s="4">
-        <v>30.058</v>
-      </c>
-      <c r="D30" s="4">
-        <v>30.091000000000001</v>
-      </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4">
-        <v>30.28</v>
-      </c>
-      <c r="C31" s="4">
-        <v>30.276</v>
-      </c>
-      <c r="D31" s="4">
-        <v>30.280999999999999</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>29</v>
-      </c>
-      <c r="B32" s="4">
-        <v>30.276</v>
-      </c>
-      <c r="C32" s="4">
-        <v>30.24</v>
-      </c>
-      <c r="D32" s="4">
-        <v>30.225000000000001</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4">
-        <v>30.192</v>
-      </c>
-      <c r="C33" s="4">
-        <v>30.178999999999998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>30.154</v>
-      </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
-        <v>30.135999999999999</v>
-      </c>
-      <c r="C34" s="4">
-        <v>30.170999999999999</v>
-      </c>
-      <c r="D34" s="4">
-        <v>30.184999999999999</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B0AF28-632F-47BA-8A8C-90B9A9C1FA09}">
   <dimension ref="A1:F35"/>
@@ -5176,37 +5209,37 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -5216,9 +5249,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5232,7 +5265,7 @@
         <v>30.024000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5246,7 +5279,7 @@
         <v>30.111999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5260,7 +5293,7 @@
         <v>30.138999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5274,7 +5307,7 @@
         <v>30.074000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5288,7 +5321,7 @@
         <v>29.978999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5302,7 +5335,7 @@
         <v>29.916</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5316,7 +5349,7 @@
         <v>29.809000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5330,7 +5363,7 @@
         <v>29.928999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5344,7 +5377,7 @@
         <v>30.061</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5358,7 +5391,7 @@
         <v>30.172999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5372,7 +5405,7 @@
         <v>30.381</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5386,7 +5419,7 @@
         <v>30.433</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5400,7 +5433,7 @@
         <v>30.405000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5414,7 +5447,7 @@
         <v>30.39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5428,7 +5461,7 @@
         <v>30.356000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5442,7 +5475,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5456,7 +5489,7 @@
         <v>30.216000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5470,7 +5503,7 @@
         <v>30.218</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5484,7 +5517,7 @@
         <v>30.187000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5498,7 +5531,7 @@
         <v>30.206</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -5512,19 +5545,19 @@
         <v>30.116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4">
         <v>30.053999999999998</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="4">
         <v>29.966999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -5538,7 +5571,7 @@
         <v>29.984000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -5552,7 +5585,7 @@
         <v>30.158999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -5566,7 +5599,7 @@
         <v>30.207999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -5580,7 +5613,7 @@
         <v>30.047000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -5594,7 +5627,7 @@
         <v>30.068999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -5608,7 +5641,7 @@
         <v>29.742999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -5622,7 +5655,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -5636,7 +5669,7 @@
         <v>29.943999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -5650,7 +5683,7 @@
         <v>29.824000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -5672,37 +5705,37 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -5712,9 +5745,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -5728,7 +5761,7 @@
         <v>30.137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -5742,7 +5775,7 @@
         <v>29.875</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -5756,7 +5789,7 @@
         <v>29.838000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -5770,7 +5803,7 @@
         <v>29.949000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -5784,7 +5817,7 @@
         <v>30.274999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5798,7 +5831,7 @@
         <v>30.306999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -5812,7 +5845,7 @@
         <v>30.212</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -5826,7 +5859,7 @@
         <v>30.158999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -5840,7 +5873,7 @@
         <v>30.114000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -5854,7 +5887,7 @@
         <v>30.305</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -5868,7 +5901,7 @@
         <v>30.242999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -5882,7 +5915,7 @@
         <v>30.018999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -5896,7 +5929,7 @@
         <v>29.954000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -5910,7 +5943,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -5924,7 +5957,7 @@
         <v>29.983000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -5938,7 +5971,7 @@
         <v>29.896999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -5952,7 +5985,7 @@
         <v>29.748999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -5966,7 +5999,7 @@
         <v>29.942</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -5980,7 +6013,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -5994,7 +6027,7 @@
         <v>29.741</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6008,7 +6041,7 @@
         <v>29.869</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6022,7 +6055,7 @@
         <v>29.923999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6036,7 +6069,7 @@
         <v>29.87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6050,7 +6083,7 @@
         <v>29.923999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6064,7 +6097,7 @@
         <v>30.082000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6078,7 +6111,7 @@
         <v>29.952999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6092,7 +6125,7 @@
         <v>29.975999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6106,7 +6139,7 @@
         <v>29.966000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6120,7 +6153,7 @@
         <v>29.898</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6134,7 +6167,7 @@
         <v>29.452000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6148,7 +6181,7 @@
         <v>29.553000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
@@ -6169,37 +6202,37 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -6209,9 +6242,9 @@
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6224,9 +6257,9 @@
       <c r="D4" s="4">
         <v>29.821000000000002</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -6239,9 +6272,9 @@
       <c r="D5" s="4">
         <v>29.942</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6254,9 +6287,9 @@
       <c r="D6" s="4">
         <v>29.949000000000002</v>
       </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6269,9 +6302,9 @@
       <c r="D7" s="4">
         <v>29.582000000000001</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6284,9 +6317,9 @@
       <c r="D8" s="4">
         <v>29.744</v>
       </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6299,9 +6332,9 @@
       <c r="D9" s="3">
         <v>29.765000000000001</v>
       </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6314,9 +6347,9 @@
       <c r="D10" s="4">
         <v>29.661000000000001</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -6329,9 +6362,9 @@
       <c r="D11" s="4">
         <v>29.888999999999999</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -6341,12 +6374,12 @@
       <c r="C12" s="4">
         <v>29.905999999999999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>29.916</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -6359,9 +6392,9 @@
       <c r="D13" s="4">
         <v>29.911000000000001</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -6374,9 +6407,9 @@
       <c r="D14" s="4">
         <v>29.945</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -6389,9 +6422,9 @@
       <c r="D15" s="4">
         <v>29.984000000000002</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -6404,9 +6437,9 @@
       <c r="D16" s="4">
         <v>29.870999999999999</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -6419,9 +6452,9 @@
       <c r="D17" s="4">
         <v>29.83</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -6434,9 +6467,9 @@
       <c r="D18" s="4">
         <v>29.68</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -6449,9 +6482,9 @@
       <c r="D19" s="4">
         <v>29.69</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -6464,9 +6497,9 @@
       <c r="D20" s="4">
         <v>29.805</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -6479,9 +6512,9 @@
       <c r="D21" s="4">
         <v>30.04</v>
       </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -6494,9 +6527,9 @@
       <c r="D22" s="4">
         <v>30.321000000000002</v>
       </c>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -6509,9 +6542,9 @@
       <c r="D23" s="4">
         <v>30.338000000000001</v>
       </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -6524,9 +6557,9 @@
       <c r="D24" s="4">
         <v>30.091000000000001</v>
       </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -6539,9 +6572,9 @@
       <c r="D25" s="4">
         <v>29.853999999999999</v>
       </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -6554,9 +6587,9 @@
       <c r="D26" s="4">
         <v>29.901</v>
       </c>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -6569,9 +6602,9 @@
       <c r="D27" s="4">
         <v>29.651</v>
       </c>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -6584,9 +6617,9 @@
       <c r="D28" s="4">
         <v>29.986000000000001</v>
       </c>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -6599,9 +6632,9 @@
       <c r="D29" s="4">
         <v>29.699000000000002</v>
       </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -6614,9 +6647,9 @@
       <c r="D30" s="4">
         <v>29.611000000000001</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -6629,9 +6662,9 @@
       <c r="D31" s="4">
         <v>29.414999999999999</v>
       </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -6644,9 +6677,9 @@
       <c r="D32" s="4">
         <v>29.669</v>
       </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -6659,9 +6692,9 @@
       <c r="D33" s="4">
         <v>29.084</v>
       </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -6669,7 +6702,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
     </row>
   </sheetData>
